--- a/Test Case - 7/TC7_Results_B.xlsx
+++ b/Test Case - 7/TC7_Results_B.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -743,19 +743,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -802,7 +802,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -905,16 +925,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -945,11 +955,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1252,7 +1262,7 @@
   <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,20 +1271,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1289,7 +1299,7 @@
       <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1298,43 +1308,43 @@
       <c r="O1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="5"/>
       <c r="N2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2957,6 +2967,9 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
       <c r="R34" t="s">
         <v>34</v>
       </c>
@@ -3001,6 +3014,9 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
       <c r="R35" t="s">
         <v>34</v>
       </c>
@@ -3045,6 +3061,9 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
       <c r="R36" t="s">
         <v>34</v>
       </c>
@@ -3089,6 +3108,9 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
       <c r="R37" t="s">
         <v>34</v>
       </c>
@@ -3133,6 +3155,9 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
       <c r="R38" t="s">
         <v>34</v>
       </c>
@@ -3177,6 +3202,9 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
       <c r="R39" t="s">
         <v>34</v>
       </c>
@@ -3221,6 +3249,9 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
       <c r="R40" t="s">
         <v>34</v>
       </c>
@@ -3265,6 +3296,9 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
       <c r="R41" t="s">
         <v>34</v>
       </c>
@@ -3309,6 +3343,9 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
       <c r="R42" t="s">
         <v>34</v>
       </c>
@@ -3353,6 +3390,9 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
       <c r="R43" t="s">
         <v>34</v>
       </c>
@@ -3397,6 +3437,9 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
       <c r="R44" t="s">
         <v>34</v>
       </c>
@@ -3441,6 +3484,9 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
       <c r="R45" t="s">
         <v>34</v>
       </c>
@@ -4179,6 +4225,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M34:O45"/>
@@ -4187,36 +4237,40 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L63">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q14">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4224,7 +4278,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4232,7 +4286,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q25">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4240,7 +4294,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
+  <conditionalFormatting sqref="Q28">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -4248,11 +4302,11 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q34:Q45">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Test Case - 7/TC7_Results_B.xlsx
+++ b/Test Case - 7/TC7_Results_B.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Reductive" sheetId="1" r:id="rId1"/>
+    <sheet name="Multiplicative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="94">
   <si>
     <t>799f0c5c-7274-443f-adfa-f4b3f2cce874</t>
   </si>
@@ -256,6 +257,51 @@
   </si>
   <si>
     <t>These points do not pull a magic point.  We need to discuss analysis of sub-levels and running sub-levels without significant points.  This is the same issue with TC4</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>XL Multi</t>
+  </si>
+  <si>
+    <t>JSON Multi</t>
+  </si>
+  <si>
+    <t>VSCode Multi</t>
+  </si>
+  <si>
+    <t>Equation 3</t>
+  </si>
+  <si>
+    <t>Equation 4</t>
+  </si>
+  <si>
+    <t>Equation 5</t>
+  </si>
+  <si>
+    <t>XL Match</t>
+  </si>
+  <si>
+    <t>VSCode Match</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>FQN</t>
+  </si>
+  <si>
+    <t>GRN</t>
   </si>
 </sst>
 </file>
@@ -579,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -694,6 +740,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -739,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -749,6 +832,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -756,6 +842,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -802,7 +912,47 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -965,6 +1115,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -980,6 +1140,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1259,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,48 +1441,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1331,16 +1501,16 @@
       <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>73</v>
       </c>
       <c r="P2" s="3"/>
@@ -2306,97 +2476,45 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>9.06</v>
-      </c>
-      <c r="C22">
-        <v>23.713999999999999</v>
-      </c>
-      <c r="D22">
-        <v>12.06</v>
-      </c>
-      <c r="E22">
-        <v>9.06</v>
-      </c>
-      <c r="F22">
-        <v>23.71</v>
-      </c>
-      <c r="G22">
-        <v>12.06</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22">
-        <v>28</v>
-      </c>
-      <c r="J22">
-        <v>1.2356946824183399</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>11.506</v>
-      </c>
-      <c r="N22">
-        <v>13.805999999999999</v>
-      </c>
-      <c r="O22">
-        <v>21.228000000000002</v>
-      </c>
-      <c r="P22">
-        <f>0.9*((O22-D22)^0.51)*((SQRT((M22-B22)^2+(N22-C22)^2)^(-0.35)))</f>
-        <v>1.235694682418341</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>9.0630000000000006</v>
+        <v>9.06</v>
       </c>
       <c r="C23">
-        <v>18.535</v>
+        <v>23.713999999999999</v>
       </c>
       <c r="D23">
-        <v>12.061</v>
+        <v>12.06</v>
       </c>
       <c r="E23">
         <v>9.06</v>
       </c>
       <c r="F23">
-        <v>18.54</v>
+        <v>23.71</v>
       </c>
       <c r="G23">
         <v>12.06</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>1.5517820117465899</v>
+        <v>1.2356946824183399</v>
       </c>
       <c r="K23">
-        <v>1.5516223330000001</v>
+        <v>1</v>
       </c>
       <c r="L23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>11.506</v>
@@ -2407,43 +2525,50 @@
       <c r="O23">
         <v>21.228000000000002</v>
       </c>
+      <c r="P23">
+        <f>0.9*((O23-D23)^0.51)*((SQRT((M23-B23)^2+(N23-C23)^2)^(-0.35)))</f>
+        <v>1.235694682418341</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
       <c r="R23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>9.0630000000000006</v>
+      </c>
+      <c r="C24">
+        <v>18.535</v>
+      </c>
+      <c r="D24">
+        <v>12.061</v>
+      </c>
+      <c r="E24">
+        <v>9.06</v>
+      </c>
+      <c r="F24">
+        <v>18.54</v>
+      </c>
+      <c r="G24">
+        <v>12.06</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>11.476000000000001</v>
-      </c>
-      <c r="C24">
-        <v>29.161000000000001</v>
-      </c>
-      <c r="D24">
-        <v>13.457000000000001</v>
-      </c>
-      <c r="E24">
-        <v>11.48</v>
-      </c>
-      <c r="F24">
-        <v>29.16</v>
-      </c>
-      <c r="G24">
-        <v>13.46</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24">
-        <v>38</v>
-      </c>
       <c r="J24">
-        <v>1</v>
+        <v>1.5517820117465899</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>1.5516223330000001</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -2463,56 +2588,49 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>15.416</v>
+        <v>11.476000000000001</v>
       </c>
       <c r="C25">
         <v>29.161000000000001</v>
       </c>
       <c r="D25">
-        <v>15.760999999999999</v>
+        <v>13.457000000000001</v>
       </c>
       <c r="E25">
-        <v>15.42</v>
+        <v>11.48</v>
       </c>
       <c r="F25">
         <v>29.16</v>
       </c>
       <c r="G25">
-        <v>15.76</v>
-      </c>
-      <c r="H25" t="s">
-        <v>24</v>
+        <v>13.46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J25">
-        <v>1.1156843785406301</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>14.667999999999999</v>
+        <v>11.506</v>
       </c>
       <c r="N25">
-        <v>10.151999999999999</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="O25">
-        <v>27.265999999999998</v>
-      </c>
-      <c r="P25">
-        <f>0.9*((O25-D25)^0.51)*((SQRT((M25-B25)^2+(N25-C25)^2)^(-0.35)))</f>
-        <v>1.1156843785406332</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>1</v>
+        <v>21.228000000000002</v>
       </c>
       <c r="R25" t="s">
         <v>14</v>
@@ -2520,49 +2638,56 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>12.355</v>
+        <v>15.416</v>
       </c>
       <c r="C26">
-        <v>13.023999999999999</v>
+        <v>29.161000000000001</v>
       </c>
       <c r="D26">
-        <v>13.993</v>
+        <v>15.760999999999999</v>
       </c>
       <c r="E26">
-        <v>12.36</v>
+        <v>15.42</v>
       </c>
       <c r="F26">
-        <v>13.02</v>
+        <v>29.16</v>
       </c>
       <c r="G26">
-        <v>13.99</v>
+        <v>15.76</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>2.34827730850026</v>
+        <v>1.1156843785406301</v>
       </c>
       <c r="K26">
-        <v>2.3447277400000002</v>
+        <v>1</v>
       </c>
       <c r="L26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>11.506</v>
+        <v>14.667999999999999</v>
       </c>
       <c r="N26">
-        <v>13.805999999999999</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="O26">
-        <v>21.228000000000002</v>
+        <v>27.265999999999998</v>
+      </c>
+      <c r="P26">
+        <f>0.9*((O26-D26)^0.51)*((SQRT((M26-B26)^2+(N26-C26)^2)^(-0.35)))</f>
+        <v>1.1156843785406332</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
       </c>
       <c r="R26" t="s">
         <v>14</v>
@@ -2570,43 +2695,43 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>15.55</v>
+        <v>12.355</v>
       </c>
       <c r="C27">
-        <v>13.063000000000001</v>
+        <v>13.023999999999999</v>
       </c>
       <c r="D27">
-        <v>15.868</v>
+        <v>13.993</v>
       </c>
       <c r="E27">
-        <v>15.55</v>
+        <v>12.36</v>
       </c>
       <c r="F27">
-        <v>13.06</v>
+        <v>13.02</v>
       </c>
       <c r="G27">
-        <v>15.87</v>
+        <v>13.99</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J27">
-        <v>1.63718368515072</v>
+        <v>2.34827730850026</v>
       </c>
       <c r="K27">
-        <v>1.6372662469999999</v>
+        <v>2.3447277400000002</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>17.503</v>
+        <v>11.506</v>
       </c>
       <c r="N27">
         <v>13.805999999999999</v>
@@ -2620,56 +2745,49 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>19.829999999999998</v>
+        <v>15.55</v>
       </c>
       <c r="C28">
-        <v>29.056000000000001</v>
+        <v>13.063000000000001</v>
       </c>
       <c r="D28">
-        <v>15.737</v>
+        <v>15.868</v>
       </c>
       <c r="E28">
-        <v>19.829999999999998</v>
+        <v>15.55</v>
       </c>
       <c r="F28">
-        <v>29.06</v>
+        <v>13.06</v>
       </c>
       <c r="G28">
-        <v>15.74</v>
+        <v>15.87</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J28">
-        <v>1.11908663780101</v>
+        <v>1.63718368515072</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>1.6372662469999999</v>
       </c>
       <c r="L28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>20.574999999999999</v>
+        <v>17.503</v>
       </c>
       <c r="N28">
-        <v>10.151999999999999</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="O28">
-        <v>27.266999999999999</v>
-      </c>
-      <c r="P28">
-        <f>0.9*((O28-D28)^0.51)*((SQRT((M28-B28)^2+(N28-C28)^2)^(-0.35)))</f>
-        <v>1.1190866378010158</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>1</v>
+        <v>21.228000000000002</v>
       </c>
       <c r="R28" t="s">
         <v>14</v>
@@ -2677,49 +2795,56 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>23.832999999999998</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="C29">
-        <v>29.126000000000001</v>
+        <v>29.056000000000001</v>
       </c>
       <c r="D29">
-        <v>13.382999999999999</v>
+        <v>15.737</v>
       </c>
       <c r="E29">
-        <v>23.83</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="F29">
-        <v>29.13</v>
+        <v>29.06</v>
       </c>
       <c r="G29">
-        <v>13.38</v>
+        <v>15.74</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>1.11908663780101</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>23.498999999999999</v>
+        <v>20.574999999999999</v>
       </c>
       <c r="N29">
-        <v>13.805999999999999</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="O29">
-        <v>21.228000000000002</v>
+        <v>27.266999999999999</v>
+      </c>
+      <c r="P29">
+        <f>0.9*((O29-D29)^0.51)*((SQRT((M29-B29)^2+(N29-C29)^2)^(-0.35)))</f>
+        <v>1.1190866378010158</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
       </c>
       <c r="R29" t="s">
         <v>14</v>
@@ -2727,37 +2852,37 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>23.126000000000001</v>
+        <v>23.832999999999998</v>
       </c>
       <c r="C30">
-        <v>13.007</v>
+        <v>29.126000000000001</v>
       </c>
       <c r="D30">
-        <v>13.805999999999999</v>
+        <v>13.382999999999999</v>
       </c>
       <c r="E30">
-        <v>23.13</v>
+        <v>23.83</v>
       </c>
       <c r="F30">
-        <v>13.01</v>
+        <v>29.13</v>
       </c>
       <c r="G30">
-        <v>13.81</v>
+        <v>13.38</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>2.6141631707554098</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>2.6141746860000001</v>
+        <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2777,49 +2902,49 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>20.146000000000001</v>
+        <v>23.126000000000001</v>
       </c>
       <c r="C31">
         <v>13.007</v>
       </c>
       <c r="D31">
-        <v>15.555</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="E31">
-        <v>20.149999999999999</v>
+        <v>23.13</v>
       </c>
       <c r="F31">
         <v>13.01</v>
       </c>
       <c r="G31">
-        <v>15.55</v>
+        <v>13.81</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J31">
-        <v>2.1781373859522501</v>
+        <v>2.6141631707554098</v>
       </c>
       <c r="K31">
-        <v>2.1775522970000001</v>
+        <v>2.6141746860000001</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.574999999999999</v>
+        <v>23.498999999999999</v>
       </c>
       <c r="N31">
-        <v>10.151999999999999</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="O31">
-        <v>27.266999999999999</v>
+        <v>21.228000000000002</v>
       </c>
       <c r="R31" t="s">
         <v>14</v>
@@ -2827,49 +2952,49 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>17.542999999999999</v>
+        <v>20.146000000000001</v>
       </c>
       <c r="C32">
-        <v>18.603000000000002</v>
+        <v>13.007</v>
       </c>
       <c r="D32">
-        <v>17.036999999999999</v>
+        <v>15.555</v>
       </c>
       <c r="E32">
-        <v>17.54</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="F32">
-        <v>18.600000000000001</v>
+        <v>13.01</v>
       </c>
       <c r="G32">
-        <v>17.04</v>
+        <v>15.55</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32">
         <v>36</v>
       </c>
       <c r="J32">
-        <v>1.0796421482981</v>
+        <v>2.1781373859522501</v>
       </c>
       <c r="K32">
-        <v>1.0800626099999999</v>
+        <v>2.1775522970000001</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>17.503</v>
+        <v>20.574999999999999</v>
       </c>
       <c r="N32">
-        <v>13.805999999999999</v>
+        <v>10.151999999999999</v>
       </c>
       <c r="O32">
-        <v>21.228000000000002</v>
+        <v>27.266999999999999</v>
       </c>
       <c r="R32" t="s">
         <v>14</v>
@@ -2877,37 +3002,37 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>17.561</v>
+        <v>17.542999999999999</v>
       </c>
       <c r="C33">
-        <v>23.727</v>
+        <v>18.603000000000002</v>
       </c>
       <c r="D33">
-        <v>17.047999999999998</v>
+        <v>17.036999999999999</v>
       </c>
       <c r="E33">
-        <v>17.559999999999999</v>
+        <v>17.54</v>
       </c>
       <c r="F33">
-        <v>23.73</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G33">
-        <v>17.05</v>
+        <v>17.04</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>1.0796421482981</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>1.0800626099999999</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -2927,59 +3052,60 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>41.488</v>
+        <v>17.561</v>
       </c>
       <c r="C34">
+        <v>23.727</v>
+      </c>
+      <c r="D34">
+        <v>17.047999999999998</v>
+      </c>
+      <c r="E34">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="F34">
+        <v>23.73</v>
+      </c>
+      <c r="G34">
+        <v>17.05</v>
+      </c>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>62</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.503</v>
+      </c>
+      <c r="N34">
         <v>13.805999999999999</v>
       </c>
-      <c r="D34">
-        <v>21.228999999999999</v>
-      </c>
-      <c r="E34">
-        <v>41.49</v>
-      </c>
-      <c r="F34">
-        <v>13.81</v>
-      </c>
-      <c r="G34">
-        <v>21.23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34">
-        <v>37</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1.1991552649999999</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="Q34" t="b">
-        <v>1</v>
+      <c r="O34">
+        <v>21.228000000000002</v>
       </c>
       <c r="R34" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>35.491999999999997</v>
+        <v>41.488</v>
       </c>
       <c r="C35">
         <v>13.805999999999999</v>
@@ -2988,7 +3114,7 @@
         <v>21.228999999999999</v>
       </c>
       <c r="E35">
-        <v>35.49</v>
+        <v>41.49</v>
       </c>
       <c r="F35">
         <v>13.81</v>
@@ -2997,7 +3123,7 @@
         <v>21.23</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I35">
         <v>37</v>
@@ -3006,14 +3132,16 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1.3186651810000001</v>
+        <v>1.1991552649999999</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="M35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
       <c r="Q35" t="b">
         <v>1</v>
       </c>
@@ -3023,10 +3151,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>29.495000000000001</v>
+        <v>35.491999999999997</v>
       </c>
       <c r="C36">
         <v>13.805999999999999</v>
@@ -3035,7 +3163,7 @@
         <v>21.228999999999999</v>
       </c>
       <c r="E36">
-        <v>29.5</v>
+        <v>35.49</v>
       </c>
       <c r="F36">
         <v>13.81</v>
@@ -3044,23 +3172,23 @@
         <v>21.23</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>1.3137841400000001</v>
+        <v>1.3186651810000001</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
       <c r="Q36" t="b">
         <v>1</v>
       </c>
@@ -3070,19 +3198,19 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>23.498999999999999</v>
+        <v>29.495000000000001</v>
       </c>
       <c r="C37">
         <v>13.805999999999999</v>
       </c>
       <c r="D37">
-        <v>21.228000000000002</v>
+        <v>21.228999999999999</v>
       </c>
       <c r="E37">
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
       <c r="F37">
         <v>13.81</v>
@@ -3091,23 +3219,23 @@
         <v>21.23</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1.311950102</v>
+        <v>1.3137841400000001</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
       <c r="Q37" t="b">
         <v>1</v>
       </c>
@@ -3117,10 +3245,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>17.503</v>
+        <v>23.498999999999999</v>
       </c>
       <c r="C38">
         <v>13.805999999999999</v>
@@ -3129,7 +3257,7 @@
         <v>21.228000000000002</v>
       </c>
       <c r="E38">
-        <v>17.5</v>
+        <v>23.5</v>
       </c>
       <c r="F38">
         <v>13.81</v>
@@ -3138,23 +3266,23 @@
         <v>21.23</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
-        <v>1.3174464079999999</v>
+        <v>1.311950102</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
       <c r="Q38" t="b">
         <v>1</v>
       </c>
@@ -3164,10 +3292,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>11.506</v>
+        <v>17.503</v>
       </c>
       <c r="C39">
         <v>13.805999999999999</v>
@@ -3176,7 +3304,7 @@
         <v>21.228000000000002</v>
       </c>
       <c r="E39">
-        <v>11.51</v>
+        <v>17.5</v>
       </c>
       <c r="F39">
         <v>13.81</v>
@@ -3185,23 +3313,23 @@
         <v>21.23</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I39">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1.3223145119999999</v>
+        <v>1.3174464079999999</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
       <c r="Q39" t="b">
         <v>1</v>
       </c>
@@ -3211,10 +3339,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>5.51</v>
+        <v>11.506</v>
       </c>
       <c r="C40">
         <v>13.805999999999999</v>
@@ -3223,7 +3351,7 @@
         <v>21.228000000000002</v>
       </c>
       <c r="E40">
-        <v>5.51</v>
+        <v>11.51</v>
       </c>
       <c r="F40">
         <v>13.81</v>
@@ -3231,24 +3359,24 @@
       <c r="G40">
         <v>21.23</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>40</v>
+      <c r="H40" t="s">
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>1.327765165</v>
+        <v>1.3223145119999999</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
       <c r="Q40" t="b">
         <v>1</v>
       </c>
@@ -3258,44 +3386,44 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>5.51</v>
+      </c>
+      <c r="C41">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="D41">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="E41">
+        <v>5.51</v>
+      </c>
+      <c r="F41">
+        <v>13.81</v>
+      </c>
+      <c r="G41">
+        <v>21.23</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>-0.57299999999999995</v>
-      </c>
-      <c r="C41">
-        <v>13.728999999999999</v>
-      </c>
-      <c r="D41">
-        <v>21.356000000000002</v>
-      </c>
-      <c r="E41">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="F41">
-        <v>13.73</v>
-      </c>
-      <c r="G41">
-        <v>21.36</v>
-      </c>
-      <c r="H41" t="s">
-        <v>41</v>
-      </c>
       <c r="I41">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>1.2132017909999999</v>
+        <v>1.327765165</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
       <c r="Q41" t="b">
         <v>1</v>
       </c>
@@ -3305,44 +3433,44 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="C42">
+        <v>13.728999999999999</v>
+      </c>
+      <c r="D42">
+        <v>21.356000000000002</v>
+      </c>
+      <c r="E42">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="F42">
+        <v>13.73</v>
+      </c>
+      <c r="G42">
+        <v>21.36</v>
+      </c>
+      <c r="H42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>41.518999999999998</v>
-      </c>
-      <c r="C42">
-        <v>12.433999999999999</v>
-      </c>
-      <c r="D42">
-        <v>23.423999999999999</v>
-      </c>
-      <c r="E42">
-        <v>41.52</v>
-      </c>
-      <c r="F42">
-        <v>12.43</v>
-      </c>
-      <c r="G42">
-        <v>23.42</v>
-      </c>
-      <c r="H42" t="s">
-        <v>42</v>
-      </c>
       <c r="I42">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1.187988289</v>
+        <v>1.2132017909999999</v>
       </c>
       <c r="L42" t="b">
         <v>0</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
       <c r="Q42" t="b">
         <v>1</v>
       </c>
@@ -3352,44 +3480,44 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>41.518999999999998</v>
       </c>
       <c r="C43">
-        <v>11.326000000000001</v>
+        <v>12.433999999999999</v>
       </c>
       <c r="D43">
-        <v>25.256</v>
+        <v>23.423999999999999</v>
       </c>
       <c r="E43">
         <v>41.52</v>
       </c>
       <c r="F43">
-        <v>11.33</v>
+        <v>12.43</v>
       </c>
       <c r="G43">
-        <v>25.26</v>
+        <v>23.42</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I43">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1.209509001</v>
+        <v>1.187988289</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
       <c r="Q43" t="b">
         <v>1</v>
       </c>
@@ -3399,44 +3527,44 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>41.518999999999998</v>
+      </c>
+      <c r="C44">
+        <v>11.326000000000001</v>
+      </c>
+      <c r="D44">
+        <v>25.256</v>
+      </c>
+      <c r="E44">
+        <v>41.52</v>
+      </c>
+      <c r="F44">
+        <v>11.33</v>
+      </c>
+      <c r="G44">
+        <v>25.26</v>
+      </c>
+      <c r="H44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>-0.61699999999999999</v>
-      </c>
-      <c r="C44">
-        <v>12.435</v>
-      </c>
-      <c r="D44">
-        <v>23.495000000000001</v>
-      </c>
-      <c r="E44">
-        <v>-0.62</v>
-      </c>
-      <c r="F44">
-        <v>12.44</v>
-      </c>
-      <c r="G44">
-        <v>23.5</v>
-      </c>
-      <c r="H44" t="s">
-        <v>44</v>
-      </c>
       <c r="I44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>1.1750077489999999</v>
+        <v>1.209509001</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
       <c r="Q44" t="b">
         <v>1</v>
       </c>
@@ -3446,44 +3574,44 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="C45">
+        <v>12.435</v>
+      </c>
+      <c r="D45">
+        <v>23.495000000000001</v>
+      </c>
+      <c r="E45">
+        <v>-0.62</v>
+      </c>
+      <c r="F45">
+        <v>12.44</v>
+      </c>
+      <c r="G45">
+        <v>23.5</v>
+      </c>
+      <c r="H45" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>-0.58599999999999997</v>
-      </c>
-      <c r="C45">
-        <v>11.35</v>
-      </c>
-      <c r="D45">
-        <v>25.286999999999999</v>
-      </c>
-      <c r="E45">
-        <v>-0.59</v>
-      </c>
-      <c r="F45">
-        <v>11.35</v>
-      </c>
-      <c r="G45">
-        <v>25.29</v>
-      </c>
-      <c r="H45" t="s">
-        <v>45</v>
-      </c>
       <c r="I45">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>1.1893750080000001</v>
+        <v>1.1750077489999999</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
       <c r="Q45" t="b">
         <v>1</v>
       </c>
@@ -3493,39 +3621,45 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="C46">
+        <v>11.35</v>
+      </c>
+      <c r="D46">
+        <v>25.286999999999999</v>
+      </c>
+      <c r="E46">
+        <v>-0.59</v>
+      </c>
+      <c r="F46">
+        <v>11.35</v>
+      </c>
+      <c r="G46">
+        <v>25.29</v>
+      </c>
+      <c r="H46" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>41.494999999999997</v>
-      </c>
-      <c r="C46">
-        <v>-1.5</v>
-      </c>
-      <c r="D46">
-        <v>21.283999999999999</v>
-      </c>
-      <c r="E46">
-        <v>41.5</v>
-      </c>
-      <c r="F46">
-        <v>-1.5</v>
-      </c>
-      <c r="G46">
-        <v>21.28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>46</v>
-      </c>
       <c r="I46">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>1.1893750080000001</v>
       </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="Q46" t="b">
         <v>1</v>
       </c>
       <c r="R46" t="s">
@@ -3534,31 +3668,31 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>41.494999999999997</v>
+      </c>
+      <c r="C47">
+        <v>-1.5</v>
+      </c>
+      <c r="D47">
+        <v>21.283999999999999</v>
+      </c>
+      <c r="E47">
+        <v>41.5</v>
+      </c>
+      <c r="F47">
+        <v>-1.5</v>
+      </c>
+      <c r="G47">
+        <v>21.28</v>
+      </c>
+      <c r="H47" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>35.850999999999999</v>
-      </c>
-      <c r="C47">
-        <v>-1.5860000000000001</v>
-      </c>
-      <c r="D47">
-        <v>21.24</v>
-      </c>
-      <c r="E47">
-        <v>35.85</v>
-      </c>
-      <c r="F47">
-        <v>-1.59</v>
-      </c>
-      <c r="G47">
-        <v>21.24</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
       <c r="I47">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -3575,19 +3709,19 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>30.231999999999999</v>
+        <v>35.850999999999999</v>
       </c>
       <c r="C48">
-        <v>-1.589</v>
+        <v>-1.5860000000000001</v>
       </c>
       <c r="D48">
-        <v>21.238</v>
+        <v>21.24</v>
       </c>
       <c r="E48">
-        <v>30.23</v>
+        <v>35.85</v>
       </c>
       <c r="F48">
         <v>-1.59</v>
@@ -3596,10 +3730,10 @@
         <v>21.24</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3616,19 +3750,19 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>24.614000000000001</v>
+        <v>30.231999999999999</v>
       </c>
       <c r="C49">
-        <v>-1.593</v>
+        <v>-1.589</v>
       </c>
       <c r="D49">
-        <v>21.236999999999998</v>
+        <v>21.238</v>
       </c>
       <c r="E49">
-        <v>24.61</v>
+        <v>30.23</v>
       </c>
       <c r="F49">
         <v>-1.59</v>
@@ -3637,10 +3771,10 @@
         <v>21.24</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I49">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -3657,31 +3791,31 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>18.995000000000001</v>
+        <v>24.614000000000001</v>
       </c>
       <c r="C50">
-        <v>-1.5960000000000001</v>
+        <v>-1.593</v>
       </c>
       <c r="D50">
-        <v>21.234999999999999</v>
+        <v>21.236999999999998</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>24.61</v>
       </c>
       <c r="F50">
-        <v>-1.6</v>
+        <v>-1.59</v>
       </c>
       <c r="G50">
         <v>21.24</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I50">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3698,31 +3832,31 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>13.375999999999999</v>
+        <v>18.995000000000001</v>
       </c>
       <c r="C51">
-        <v>-1.6</v>
+        <v>-1.5960000000000001</v>
       </c>
       <c r="D51">
-        <v>21.233000000000001</v>
+        <v>21.234999999999999</v>
       </c>
       <c r="E51">
-        <v>13.38</v>
+        <v>19</v>
       </c>
       <c r="F51">
         <v>-1.6</v>
       </c>
       <c r="G51">
-        <v>21.23</v>
+        <v>21.24</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I51">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3739,19 +3873,19 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>7.7569999999999997</v>
+        <v>13.375999999999999</v>
       </c>
       <c r="C52">
-        <v>-1.603</v>
+        <v>-1.6</v>
       </c>
       <c r="D52">
-        <v>21.231000000000002</v>
+        <v>21.233000000000001</v>
       </c>
       <c r="E52">
-        <v>7.76</v>
+        <v>13.38</v>
       </c>
       <c r="F52">
         <v>-1.6</v>
@@ -3760,10 +3894,10 @@
         <v>21.23</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -3780,31 +3914,31 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>2.1379999999999999</v>
+        <v>7.7569999999999997</v>
       </c>
       <c r="C53">
-        <v>-1.607</v>
+        <v>-1.603</v>
       </c>
       <c r="D53">
-        <v>21.228999999999999</v>
+        <v>21.231000000000002</v>
       </c>
       <c r="E53">
-        <v>2.14</v>
+        <v>7.76</v>
       </c>
       <c r="F53">
-        <v>-1.61</v>
+        <v>-1.6</v>
       </c>
       <c r="G53">
         <v>21.23</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I53">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3821,31 +3955,31 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="C54">
+        <v>-1.607</v>
+      </c>
+      <c r="D54">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="E54">
+        <v>2.14</v>
+      </c>
+      <c r="F54">
+        <v>-1.61</v>
+      </c>
+      <c r="G54">
+        <v>21.23</v>
+      </c>
+      <c r="H54" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>-0.54400000000000004</v>
-      </c>
-      <c r="C54">
-        <v>-1.4610000000000001</v>
-      </c>
-      <c r="D54">
-        <v>21.303999999999998</v>
-      </c>
-      <c r="E54">
-        <v>-0.54</v>
-      </c>
-      <c r="F54">
-        <v>-1.46</v>
-      </c>
-      <c r="G54">
-        <v>21.3</v>
-      </c>
-      <c r="H54" t="s">
-        <v>54</v>
-      </c>
       <c r="I54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -3862,28 +3996,28 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="C55">
+        <v>-1.4610000000000001</v>
+      </c>
+      <c r="D55">
+        <v>21.303999999999998</v>
+      </c>
+      <c r="E55">
+        <v>-0.54</v>
+      </c>
+      <c r="F55">
+        <v>-1.46</v>
+      </c>
+      <c r="G55">
+        <v>21.3</v>
+      </c>
+      <c r="H55" t="s">
         <v>54</v>
-      </c>
-      <c r="B55">
-        <v>41.457000000000001</v>
-      </c>
-      <c r="C55">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="D55">
-        <v>22.59</v>
-      </c>
-      <c r="E55">
-        <v>41.46</v>
-      </c>
-      <c r="F55">
-        <v>1.05</v>
-      </c>
-      <c r="G55">
-        <v>22.59</v>
-      </c>
-      <c r="H55" t="s">
-        <v>55</v>
       </c>
       <c r="I55">
         <v>53</v>
@@ -3903,31 +4037,31 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>41.457000000000001</v>
+      </c>
+      <c r="C56">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="D56">
+        <v>22.59</v>
+      </c>
+      <c r="E56">
+        <v>41.46</v>
+      </c>
+      <c r="F56">
+        <v>1.05</v>
+      </c>
+      <c r="G56">
+        <v>22.59</v>
+      </c>
+      <c r="H56" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>41.488</v>
-      </c>
-      <c r="C56">
-        <v>5.43</v>
-      </c>
-      <c r="D56">
-        <v>24.838000000000001</v>
-      </c>
-      <c r="E56">
-        <v>41.49</v>
-      </c>
-      <c r="F56">
-        <v>5.43</v>
-      </c>
-      <c r="G56">
-        <v>24.48</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
-      </c>
       <c r="I56">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -3944,31 +4078,31 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>41.488</v>
+      </c>
+      <c r="C57">
+        <v>5.43</v>
+      </c>
+      <c r="D57">
+        <v>24.838000000000001</v>
+      </c>
+      <c r="E57">
+        <v>41.49</v>
+      </c>
+      <c r="F57">
+        <v>5.43</v>
+      </c>
+      <c r="G57">
+        <v>24.48</v>
+      </c>
+      <c r="H57" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>-0.64600000000000002</v>
-      </c>
-      <c r="C57">
-        <v>1.657</v>
-      </c>
-      <c r="D57">
-        <v>22.911000000000001</v>
-      </c>
-      <c r="E57">
-        <v>-0.65</v>
-      </c>
-      <c r="F57">
-        <v>1.66</v>
-      </c>
-      <c r="G57">
-        <v>22.91</v>
-      </c>
-      <c r="H57" t="s">
-        <v>57</v>
-      </c>
       <c r="I57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3985,31 +4119,31 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="C58">
+        <v>1.657</v>
+      </c>
+      <c r="D58">
+        <v>22.911000000000001</v>
+      </c>
+      <c r="E58">
+        <v>-0.65</v>
+      </c>
+      <c r="F58">
+        <v>1.66</v>
+      </c>
+      <c r="G58">
+        <v>22.91</v>
+      </c>
+      <c r="H58" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>-0.63300000000000001</v>
-      </c>
-      <c r="C58">
-        <v>6.9139999999999997</v>
-      </c>
-      <c r="D58">
-        <v>25.62</v>
-      </c>
-      <c r="E58">
-        <v>-0.63</v>
-      </c>
-      <c r="F58">
-        <v>6.91</v>
-      </c>
-      <c r="G58">
-        <v>25.62</v>
-      </c>
-      <c r="H58" t="s">
-        <v>58</v>
-      </c>
       <c r="I58">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4026,31 +4160,31 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="C59">
+        <v>6.9139999999999997</v>
+      </c>
+      <c r="D59">
+        <v>25.62</v>
+      </c>
+      <c r="E59">
+        <v>-0.63</v>
+      </c>
+      <c r="F59">
+        <v>6.91</v>
+      </c>
+      <c r="G59">
+        <v>25.62</v>
+      </c>
+      <c r="H59" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>41.518999999999998</v>
-      </c>
-      <c r="C59">
-        <v>10.147</v>
-      </c>
-      <c r="D59">
-        <v>27.263999999999999</v>
-      </c>
-      <c r="E59">
-        <v>41.52</v>
-      </c>
-      <c r="F59">
-        <v>10.15</v>
-      </c>
-      <c r="G59">
-        <v>27.26</v>
-      </c>
-      <c r="H59" t="s">
-        <v>59</v>
-      </c>
       <c r="I59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4067,31 +4201,31 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>38.296999999999997</v>
+        <v>41.518999999999998</v>
       </c>
       <c r="C60">
-        <v>10.15</v>
+        <v>10.147</v>
       </c>
       <c r="D60">
-        <v>27.271000000000001</v>
+        <v>27.263999999999999</v>
       </c>
       <c r="E60">
-        <v>38.299999999999997</v>
+        <v>41.52</v>
       </c>
       <c r="F60">
         <v>10.15</v>
       </c>
       <c r="G60">
-        <v>27.27</v>
+        <v>27.26</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I60">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4108,19 +4242,19 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>32.39</v>
+        <v>38.296999999999997</v>
       </c>
       <c r="C61">
         <v>10.15</v>
       </c>
       <c r="D61">
-        <v>27.27</v>
+        <v>27.271000000000001</v>
       </c>
       <c r="E61">
-        <v>32.39</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F61">
         <v>10.15</v>
@@ -4129,10 +4263,10 @@
         <v>27.27</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I61">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4149,19 +4283,19 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>26.481999999999999</v>
+        <v>32.39</v>
       </c>
       <c r="C62">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="D62">
-        <v>27.268999999999998</v>
+        <v>27.27</v>
       </c>
       <c r="E62">
-        <v>26.48</v>
+        <v>32.39</v>
       </c>
       <c r="F62">
         <v>10.15</v>
@@ -4170,7 +4304,10 @@
         <v>27.27</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>59</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4187,19 +4324,19 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>20.574999999999999</v>
+        <v>26.481999999999999</v>
       </c>
       <c r="C63">
-        <v>10.151999999999999</v>
+        <v>10.151</v>
       </c>
       <c r="D63">
-        <v>27.266999999999999</v>
+        <v>27.268999999999998</v>
       </c>
       <c r="E63">
-        <v>20.58</v>
+        <v>26.48</v>
       </c>
       <c r="F63">
         <v>10.15</v>
@@ -4208,18 +4345,56 @@
         <v>27.27</v>
       </c>
       <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>20.574999999999999</v>
+      </c>
+      <c r="C64">
+        <v>10.151999999999999</v>
+      </c>
+      <c r="D64">
+        <v>27.266999999999999</v>
+      </c>
+      <c r="E64">
+        <v>20.58</v>
+      </c>
+      <c r="F64">
+        <v>10.15</v>
+      </c>
+      <c r="G64">
+        <v>27.27</v>
+      </c>
+      <c r="H64" t="s">
         <v>63</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" t="b">
-        <v>1</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4231,85 +4406,4350 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M34:O45"/>
+    <mergeCell ref="M35:O46"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L63">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+  <conditionalFormatting sqref="L3:L64">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q14">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q34:Q45">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q35:Q46">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="38.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-14.75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.1369999999999996</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-14.755000000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.7910000000000004</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3.8411632990000002</v>
+      </c>
+      <c r="J3" s="12">
+        <v>3.8184847925205698</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.1286340651472599</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>2.1286340651472599</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3" si="0">IF(OR(J3*0.95&gt;I3,J3*1.05&gt;I3),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <f>IF(AND(K3&gt;(J3*0.96),K3&lt;(J3*1.04)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <f>OR(R3,S3)</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-0.92</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5.83</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.1840000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-0.89500000000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.8490000000000002</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.8497059070000001</v>
+      </c>
+      <c r="J4" s="12">
+        <v>3.8184847925205698</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.1381104044661399</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2.1381104044661399</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" ref="R4:R63" si="1">IF(OR(J4*0.95&gt;I4,J4*1.05&gt;I4),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <f t="shared" ref="S4:S63" si="2">IF(AND(K4&gt;(J4*0.96),K4&lt;(J4*1.04)),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <f t="shared" ref="T4:T63" si="3">OR(R4,S4)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-11.82</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-11.818</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.8460000000000001</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5.5689865198029702</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.13762062122297</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2.13762062122297</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-6.37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.84</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-6.37</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5.8369999999999997</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J6" s="12">
+        <v>5.6944291887475504</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.1361510285898002</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2.1361510285898002</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-14.56</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.36</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-14.561</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11.358000000000001</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.2632574559999998</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3.8184847925205698</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2.98610030221068</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2.98610030221068</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-0.91</v>
+      </c>
+      <c r="D8" s="4">
+        <v>11.37</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-0.91200000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11.368</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.2639080439999999</v>
+      </c>
+      <c r="J8" s="12">
+        <v>3.8184847925205698</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2.9875673035241199</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2.9875673035241199</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-11.74</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11.36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-11.744999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>11.358000000000001</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.6862525705202001</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2.98610030221068</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>2.98610030221068</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-6.44</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11.36</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-6.4429999999999996</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11.355</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.6866665730439299</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.9856601612736098</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2.9856601612736098</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-14.75</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9.48</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-14.750999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.4819999999999993</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2.1462721678819401</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.7069546073611801</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2.7069546073611801</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-14.75</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-14.746</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7.7619999999999996</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.51564238849455</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2.4430812898779899</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2.4430812898779899</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.91</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.4079999999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-0.91</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.5449999999999999</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2.1367743396501799</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2.71646487589625</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2.71646487589625</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-0.89</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.6769999999999996</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7.7889999999999997</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.723819947</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2.5071485529528901</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.4472916710859001</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2.4472916710859001</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>26.01</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13.03</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>26.012</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13.025</v>
+      </c>
+      <c r="G15" s="4">
+        <v>12.112</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.5954591860000003</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.07315966296667</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2.07315966296667</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>26.12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>29.16</v>
+      </c>
+      <c r="D16" s="4">
+        <v>12.03</v>
+      </c>
+      <c r="E16" s="4">
+        <v>26.120999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>29.161000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12.03</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4.6003425849999999</v>
+      </c>
+      <c r="J16" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2.0670606221735701</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2.0670606221735701</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C17" s="4">
+        <v>29.11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12.05</v>
+      </c>
+      <c r="E17" s="4">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="F17" s="4">
+        <v>29.113</v>
+      </c>
+      <c r="G17" s="4">
+        <v>12.054</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.6017865770000004</v>
+      </c>
+      <c r="J17" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2.06884639812341</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2.06884639812341</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>13.08</v>
+      </c>
+      <c r="D18" s="4">
+        <v>12.03</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9.0039999999999996</v>
+      </c>
+      <c r="F18" s="4">
+        <v>13.076000000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>12.026999999999999</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4.6003425849999999</v>
+      </c>
+      <c r="J18" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2.06683735987033</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>2.06683735987033</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17.62</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>17.04</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17.622</v>
+      </c>
+      <c r="F19" s="4">
+        <v>13.145</v>
+      </c>
+      <c r="G19" s="4">
+        <v>17.035</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5.1981179590000002</v>
+      </c>
+      <c r="J19" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2.4287040826226298</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2.4287040826226298</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>29.16</v>
+      </c>
+      <c r="D20" s="4">
+        <v>17.03</v>
+      </c>
+      <c r="E20" s="4">
+        <v>17.564</v>
+      </c>
+      <c r="F20" s="4">
+        <v>29.161000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>17.027000000000001</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4.9327846580000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>4.8193399505456798</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2.4281411343165802</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2.4281411343165802</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>26.11</v>
+      </c>
+      <c r="C21" s="4">
+        <v>18.38</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.06</v>
+      </c>
+      <c r="E21" s="4">
+        <v>26.11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18.382999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <v>12.055</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J21" s="12">
+        <v>6.9759396107639597</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2.0689207930246298</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>2.0689207930246298</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="C22" s="4">
+        <v>23.71</v>
+      </c>
+      <c r="D22" s="4">
+        <v>12.06</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="F22" s="4">
+        <v>23.713999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>12.06</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J22" s="12">
+        <v>6.8963829273836996</v>
+      </c>
+      <c r="K22" s="4">
+        <v>2.0692927526291198</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>2.0692927526291198</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="C23" s="4">
+        <v>18.54</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12.06</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9.0630000000000006</v>
+      </c>
+      <c r="F23" s="4">
+        <v>18.535</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12.061</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J23" s="12">
+        <v>6.8809030487985101</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.0693671415703498</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2.0693671415703498</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>11.48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>29.16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13.46</v>
+      </c>
+      <c r="E24" s="4">
+        <v>11.476000000000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>29.161000000000001</v>
+      </c>
+      <c r="G24" s="4">
+        <v>13.457000000000001</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J24" s="12">
+        <v>4.6264744599835996</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3.6541244355082001</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2.17228664071565</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1.2553401023830599</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>15.42</v>
+      </c>
+      <c r="C25" s="4">
+        <v>29.16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15.76</v>
+      </c>
+      <c r="E25" s="4">
+        <v>15.416</v>
+      </c>
+      <c r="F25" s="4">
+        <v>29.161000000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>15.760999999999999</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J25" s="12">
+        <v>3.66191031128161</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.54199531603631</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2.3385019686535902</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1.1303304944900801</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>12.36</v>
+      </c>
+      <c r="C26" s="4">
+        <v>13.02</v>
+      </c>
+      <c r="D26" s="4">
+        <v>13.99</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12.355</v>
+      </c>
+      <c r="F26" s="4">
+        <v>13.023999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>13.993</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4.4250761470000004</v>
+      </c>
+      <c r="J26" s="12">
+        <v>4.2749497407790003</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3.6146348752917299</v>
+      </c>
+      <c r="L26" s="4">
+        <v>2.2113382245995901</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1.2198444737655201</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15.55</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13.06</v>
+      </c>
+      <c r="D27" s="4">
+        <v>15.87</v>
+      </c>
+      <c r="E27" s="4">
+        <v>15.55</v>
+      </c>
+      <c r="F27" s="4">
+        <v>13.063000000000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>15.868</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4.083187744</v>
+      </c>
+      <c r="J27" s="12">
+        <v>3.63740126068656</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.5402333195183502</v>
+      </c>
+      <c r="L27" s="4">
+        <v>2.3461217795855398</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1.1260989036495701</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="C28" s="4">
+        <v>29.06</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15.74</v>
+      </c>
+      <c r="E28" s="4">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="F28" s="4">
+        <v>29.056000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>15.737</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J28" s="12">
+        <v>3.6675293791172701</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3.5424289769078801</v>
+      </c>
+      <c r="L28" s="4">
+        <v>2.3367917103322098</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1.1312962564962701</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>23.83</v>
+      </c>
+      <c r="C29" s="4">
+        <v>29.13</v>
+      </c>
+      <c r="D29" s="4">
+        <v>13.38</v>
+      </c>
+      <c r="E29" s="4">
+        <v>23.832999999999998</v>
+      </c>
+      <c r="F29" s="4">
+        <v>29.126000000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <v>13.382999999999999</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3.9730833379999999</v>
+      </c>
+      <c r="J29" s="12">
+        <v>4.6885345432157299</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3.6602447415195001</v>
+      </c>
+      <c r="L29" s="4">
+        <v>2.1668757114031698</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.26058265000269</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>23.13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13.01</v>
+      </c>
+      <c r="D30" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="E30" s="4">
+        <v>23.126000000000001</v>
+      </c>
+      <c r="F30" s="4">
+        <v>13.007</v>
+      </c>
+      <c r="G30" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4.466393998</v>
+      </c>
+      <c r="J30" s="12">
+        <v>4.3816449872008896</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3.6274494836947802</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.19774171154442</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1.23174249243385</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13.01</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15.55</v>
+      </c>
+      <c r="E31" s="4">
+        <v>20.146000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>13.007</v>
+      </c>
+      <c r="G31" s="4">
+        <v>15.555</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4.1308544090000003</v>
+      </c>
+      <c r="J31" s="12">
+        <v>3.7116933080257302</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3.5461826611301102</v>
+      </c>
+      <c r="L31" s="4">
+        <v>2.3238085295891602</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1.1388222985223699</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>17.54</v>
+      </c>
+      <c r="C32" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D32" s="4">
+        <v>17.04</v>
+      </c>
+      <c r="E32" s="4">
+        <v>17.542999999999999</v>
+      </c>
+      <c r="F32" s="4">
+        <v>18.603000000000002</v>
+      </c>
+      <c r="G32" s="4">
+        <v>17.036999999999999</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.9393518670000001</v>
+      </c>
+      <c r="J32" s="12">
+        <v>4.7809339831979001</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3.53808539498573</v>
+      </c>
+      <c r="L32" s="4">
+        <v>2.4288448130478599</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1.08708560583197</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="C33" s="4">
+        <v>23.73</v>
+      </c>
+      <c r="D33" s="4">
+        <v>17.05</v>
+      </c>
+      <c r="E33" s="4">
+        <v>17.561</v>
+      </c>
+      <c r="F33" s="4">
+        <v>23.727</v>
+      </c>
+      <c r="G33" s="4">
+        <v>17.047999999999998</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="4">
+        <v>3.9383083559999998</v>
+      </c>
+      <c r="J33" s="12">
+        <v>4.7784395963346302</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3.5382039774763601</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2.4296187828526898</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1.08677573127737</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>41.49</v>
+      </c>
+      <c r="C34" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D34" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E34" s="4">
+        <v>41.488</v>
+      </c>
+      <c r="F34" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G34" s="4">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8.824068982</v>
+      </c>
+      <c r="J34" s="12">
+        <v>9.7893135800048796</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>35.49</v>
+      </c>
+      <c r="C35" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D35" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E35" s="4">
+        <v>35.491999999999997</v>
+      </c>
+      <c r="F35" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G35" s="4">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J35" s="12">
+        <v>17.109926056413201</v>
+      </c>
+      <c r="K35" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="C36" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D36" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E36" s="4">
+        <v>29.495000000000001</v>
+      </c>
+      <c r="F36" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G36" s="4">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J36" s="12">
+        <v>17.109926056413201</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R36" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S36" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="C37" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D37" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E37" s="4">
+        <v>23.498999999999999</v>
+      </c>
+      <c r="F37" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G37" s="4">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="4">
+        <v>6.8529085419999998</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1.4308321901399299</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3.80972653210143</v>
+      </c>
+      <c r="L37" s="4">
+        <v>2.78667026659785</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="4">
+        <v>1.02024252228421</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D38" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E38" s="4">
+        <v>17.503</v>
+      </c>
+      <c r="F38" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G38" s="4">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="4">
+        <v>6.8529085419999998</v>
+      </c>
+      <c r="J38" s="12">
+        <v>1.4308321901399299</v>
+      </c>
+      <c r="K38" s="4">
+        <v>3.80972653210143</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2.78667026659785</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1.02024252228421</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V38" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11.51</v>
+      </c>
+      <c r="C39" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D39" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E39" s="4">
+        <v>11.506</v>
+      </c>
+      <c r="F39" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6.8529085419999998</v>
+      </c>
+      <c r="J39" s="12">
+        <v>1.4308321901399299</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3.80972653210143</v>
+      </c>
+      <c r="L39" s="4">
+        <v>2.78667026659785</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1.02024252228421</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5.51</v>
+      </c>
+      <c r="C40" s="4">
+        <v>13.81</v>
+      </c>
+      <c r="D40" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E40" s="4">
+        <v>5.51</v>
+      </c>
+      <c r="F40" s="4">
+        <v>13.805999999999999</v>
+      </c>
+      <c r="G40" s="4">
+        <v>21.228000000000002</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J40" s="12">
+        <v>17.142386141731301</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2.78667026659785</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <v>2.78667026659785</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V40" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="C41" s="4">
+        <v>13.73</v>
+      </c>
+      <c r="D41" s="4">
+        <v>21.36</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-0.57299999999999995</v>
+      </c>
+      <c r="F41" s="4">
+        <v>13.728999999999999</v>
+      </c>
+      <c r="G41" s="4">
+        <v>21.356000000000002</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="4">
+        <v>8.8258912110000001</v>
+      </c>
+      <c r="J41" s="12">
+        <v>9.7893135800048796</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2.7957046162707599</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <v>2.7957046162707599</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S41" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>41.52</v>
+      </c>
+      <c r="C42" s="4">
+        <v>12.43</v>
+      </c>
+      <c r="D42" s="4">
+        <v>23.42</v>
+      </c>
+      <c r="E42" s="4">
+        <v>41.518999999999998</v>
+      </c>
+      <c r="F42" s="4">
+        <v>12.433999999999999</v>
+      </c>
+      <c r="G42" s="4">
+        <v>23.423999999999999</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J42" s="12">
+        <v>6.4709382265476103</v>
+      </c>
+      <c r="K42" s="4">
+        <v>3.9747476313731398</v>
+      </c>
+      <c r="L42" s="4">
+        <v>2.9404985457179</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1.0087505671346599</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V42" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>41.52</v>
+      </c>
+      <c r="C43" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="D43" s="4">
+        <v>25.26</v>
+      </c>
+      <c r="E43" s="4">
+        <v>41.518999999999998</v>
+      </c>
+      <c r="F43" s="4">
+        <v>11.326000000000001</v>
+      </c>
+      <c r="G43" s="4">
+        <v>25.256</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J43" s="12">
+        <v>5.1598555128596999</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4.1270959310056901</v>
+      </c>
+      <c r="L43" s="4">
+        <v>3.0670527802727499</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1.00419606613275</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T43" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-0.62</v>
+      </c>
+      <c r="C44" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="D44" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="F44" s="4">
+        <v>12.435</v>
+      </c>
+      <c r="G44" s="4">
+        <v>23.495000000000001</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J44" s="12">
+        <v>6.3955044365360001</v>
+      </c>
+      <c r="K44" s="4">
+        <v>3.9804662607431101</v>
+      </c>
+      <c r="L44" s="4">
+        <v>2.9454321772862002</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1.00850979778684</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V44" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-0.59</v>
+      </c>
+      <c r="C45" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="D45" s="4">
+        <v>25.29</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="F45" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="G45" s="4">
+        <v>25.286999999999999</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="4">
+        <v>8.9345936399999992</v>
+      </c>
+      <c r="J45" s="12">
+        <v>5.1449687874172101</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4.1297422438049596</v>
+      </c>
+      <c r="L45" s="4">
+        <v>3.0691812513750398</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1.0041431067287401</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="D46" s="4">
+        <v>21.28</v>
+      </c>
+      <c r="E46" s="4">
+        <v>41.494999999999997</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="G46" s="4">
+        <v>21.283999999999999</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="4">
+        <v>5.6693286289999998</v>
+      </c>
+      <c r="J46" s="12">
+        <v>5.6520347419808097</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2.7906238706750401</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <v>2.7906238706750401</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S46" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V46" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>35.85</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-1.59</v>
+      </c>
+      <c r="D47" s="4">
+        <v>21.24</v>
+      </c>
+      <c r="E47" s="4">
+        <v>35.850999999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-1.5860000000000001</v>
+      </c>
+      <c r="G47" s="4">
+        <v>21.24</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J47" s="12">
+        <v>6.6658796726342002</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2.7875176086862998</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4">
+        <v>2.7875176086862998</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S47" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>30.23</v>
+      </c>
+      <c r="C48" s="4">
+        <v>-1.59</v>
+      </c>
+      <c r="D48" s="4">
+        <v>21.24</v>
+      </c>
+      <c r="E48" s="4">
+        <v>30.231999999999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-1.589</v>
+      </c>
+      <c r="G48" s="4">
+        <v>21.238</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J48" s="12">
+        <v>6.6848585259948798</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2.7873763903584101</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>2.7873763903584101</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S48" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>24.61</v>
+      </c>
+      <c r="C49" s="4">
+        <v>-1.59</v>
+      </c>
+      <c r="D49" s="4">
+        <v>21.24</v>
+      </c>
+      <c r="E49" s="4">
+        <v>24.614000000000001</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-1.593</v>
+      </c>
+      <c r="G49" s="4">
+        <v>21.236999999999998</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J49" s="12">
+        <v>6.6944348047157902</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2.7873057803915802</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="4">
+        <v>2.7873057803915802</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S49" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="D50" s="4">
+        <v>21.24</v>
+      </c>
+      <c r="E50" s="4">
+        <v>18.995000000000001</v>
+      </c>
+      <c r="F50" s="4">
+        <v>-1.5960000000000001</v>
+      </c>
+      <c r="G50" s="4">
+        <v>21.234999999999999</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J50" s="12">
+        <v>6.7137640791095201</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2.78716455885196</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>2.78716455885196</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S50" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V50" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>13.38</v>
+      </c>
+      <c r="C51" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E51" s="4">
+        <v>13.375999999999999</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="G51" s="4">
+        <v>21.233000000000001</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J51" s="12">
+        <v>6.7333330971433698</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2.7870233351709</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+      <c r="P51" s="4">
+        <v>2.7870233351709</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R51" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S51" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>7.76</v>
+      </c>
+      <c r="C52" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="D52" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E52" s="4">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-1.603</v>
+      </c>
+      <c r="G52" s="4">
+        <v>21.231000000000002</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J52" s="12">
+        <v>6.7531469330268799</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2.7868821093481499</v>
+      </c>
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <v>2.7868821093481499</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R52" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S52" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T52" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="C53" s="4">
+        <v>-1.61</v>
+      </c>
+      <c r="D53" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-1.607</v>
+      </c>
+      <c r="G53" s="4">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4.6001663080000004</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1.4308321901399299</v>
+      </c>
+      <c r="K53" s="4">
+        <v>3.8097950385016102</v>
+      </c>
+      <c r="L53" s="4">
+        <v>2.78674088138348</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" s="4">
+        <v>1.02023501529714</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T53" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V53" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-0.54</v>
+      </c>
+      <c r="C54" s="4">
+        <v>-1.46</v>
+      </c>
+      <c r="D54" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-1.4610000000000001</v>
+      </c>
+      <c r="G54" s="4">
+        <v>21.303999999999998</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5.6704981840000004</v>
+      </c>
+      <c r="J54" s="12">
+        <v>5.6520347419808097</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2.7920354660770101</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <v>2.7920354660770101</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S54" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T54" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>41.46</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="D55" s="4">
+        <v>22.59</v>
+      </c>
+      <c r="E55" s="4">
+        <v>41.457000000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="G55" s="4">
+        <v>22.59</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J55" s="12">
+        <v>3.8511813004183</v>
+      </c>
+      <c r="K55" s="4">
+        <v>3.9091021355949298</v>
+      </c>
+      <c r="L55" s="4">
+        <v>2.8823631422815499</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="4">
+        <v>1.0121002301564801</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T55" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V55" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>41.49</v>
+      </c>
+      <c r="C56" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="D56" s="4">
+        <v>24.48</v>
+      </c>
+      <c r="E56" s="4">
+        <v>41.488</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="G56" s="4">
+        <v>24.838000000000001</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J56" s="12">
+        <v>3.0898535653998001</v>
+      </c>
+      <c r="K56" s="4">
+        <v>4.0915950414422104</v>
+      </c>
+      <c r="L56" s="4">
+        <v>3.03831142737143</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1.0049756940309</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T56" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-0.65</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="D57" s="4">
+        <v>22.91</v>
+      </c>
+      <c r="E57" s="4">
+        <v>-0.64600000000000002</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1.657</v>
+      </c>
+      <c r="G57" s="4">
+        <v>22.911000000000001</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J57" s="12">
+        <v>3.6714668095426202</v>
+      </c>
+      <c r="K57" s="4">
+        <v>3.9340125461034501</v>
+      </c>
+      <c r="L57" s="4">
+        <v>2.9047792299847401</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1.0106896345102101</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T57" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V57" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-0.63</v>
+      </c>
+      <c r="C58" s="4">
+        <v>6.91</v>
+      </c>
+      <c r="D58" s="4">
+        <v>25.62</v>
+      </c>
+      <c r="E58" s="4">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="F58" s="4">
+        <v>6.9139999999999997</v>
+      </c>
+      <c r="G58" s="4">
+        <v>25.62</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4.7639447329999998</v>
+      </c>
+      <c r="J58" s="12">
+        <v>2.9548567482443602</v>
+      </c>
+      <c r="K58" s="4">
+        <v>4.15827380110475</v>
+      </c>
+      <c r="L58" s="4">
+        <v>3.0920187806538899</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1.0036127281067999</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T58" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V58" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>41.52</v>
+      </c>
+      <c r="C59" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="D59" s="4">
+        <v>27.26</v>
+      </c>
+      <c r="E59" s="4">
+        <v>41.518999999999998</v>
+      </c>
+      <c r="F59" s="4">
+        <v>10.147</v>
+      </c>
+      <c r="G59" s="4">
+        <v>27.263999999999999</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="4">
+        <v>8.9038741290000001</v>
+      </c>
+      <c r="J59" s="12">
+        <v>5.6520347419808097</v>
+      </c>
+      <c r="K59" s="4">
+        <v>3.20407995352351</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4">
+        <v>3.20407995352351</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T59" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V59" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C60" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="D60" s="4">
+        <v>27.27</v>
+      </c>
+      <c r="E60" s="4">
+        <v>38.296999999999997</v>
+      </c>
+      <c r="F60" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="G60" s="4">
+        <v>27.271000000000001</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I60" s="4">
+        <v>6.7177741949999996</v>
+      </c>
+      <c r="J60" s="12">
+        <v>3.8404647060178601</v>
+      </c>
+      <c r="K60" s="4">
+        <v>4.3018567496431102</v>
+      </c>
+      <c r="L60" s="4">
+        <v>3.2045547295670702</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1.0018055951181399</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T60" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V60" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>32.39</v>
+      </c>
+      <c r="C61" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="D61" s="4">
+        <v>27.27</v>
+      </c>
+      <c r="E61" s="4">
+        <v>32.39</v>
+      </c>
+      <c r="F61" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="G61" s="4">
+        <v>27.27</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="4">
+        <v>6.7177741949999996</v>
+      </c>
+      <c r="J61" s="12">
+        <v>3.8406158950829901</v>
+      </c>
+      <c r="K61" s="4">
+        <v>4.3017690145356804</v>
+      </c>
+      <c r="L61" s="4">
+        <v>3.2044869056193601</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1.00180636667677</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T61" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V61" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>26.48</v>
+      </c>
+      <c r="C62" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="D62" s="4">
+        <v>27.27</v>
+      </c>
+      <c r="E62" s="4">
+        <v>26.481999999999999</v>
+      </c>
+      <c r="F62" s="4">
+        <v>10.151</v>
+      </c>
+      <c r="G62" s="4">
+        <v>27.268999999999998</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="4">
+        <v>6.7177741949999996</v>
+      </c>
+      <c r="J62" s="12">
+        <v>3.8407671109839598</v>
+      </c>
+      <c r="K62" s="4">
+        <v>4.3016812801000599</v>
+      </c>
+      <c r="L62" s="4">
+        <v>3.2044190812712201</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1.00180713854971</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S62" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T62" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V62" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>20.58</v>
+      </c>
+      <c r="C63" s="4">
+        <v>10.15</v>
+      </c>
+      <c r="D63" s="4">
+        <v>27.27</v>
+      </c>
+      <c r="E63" s="4">
+        <v>20.574999999999999</v>
+      </c>
+      <c r="F63" s="4">
+        <v>10.151999999999999</v>
+      </c>
+      <c r="G63" s="4">
+        <v>27.266999999999999</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="4">
+        <v>6.7177741949999996</v>
+      </c>
+      <c r="J63" s="14">
+        <v>3.84106962333512</v>
+      </c>
+      <c r="K63" s="4">
+        <v>4.3015058132459503</v>
+      </c>
+      <c r="L63" s="4">
+        <v>3.20428343137359</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" s="4">
+        <v>1.0018086832389901</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T63" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V63" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R3:R63">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S63">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:U63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>